--- a/biology/Botanique/Anode_à_crête/Anode_à_crête.xlsx
+++ b/biology/Botanique/Anode_à_crête/Anode_à_crête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anode_%C3%A0_cr%C3%AAte</t>
+          <t>Anode_à_crête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anode - Anoda cristata - est une espèce de la famille des Malvacées originaire d'Amérique centrale et du Sud.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anode_%C3%A0_cr%C3%AAte</t>
+          <t>Anode_à_crête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoda cristata est une plante herbacée de 30 à 60 cm de haut.
 La floraison, se prolongeant durant tout l'été, est mauve.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anode_%C3%A0_cr%C3%AAte</t>
+          <t>Anode_à_crête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anoda cristata est originaire du Mexique et de l'Amérique centrale, avec une distribution secondaire qui va de l'Arizona a l'Amérique du Sud et les Caraïbes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anoda cristata est originaire du Mexique et de l'Amérique centrale, avec une distribution secondaire qui va de l'Arizona a l'Amérique du Sud et les Caraïbes.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anode_%C3%A0_cr%C3%AAte</t>
+          <t>Anode_à_crête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adventice largement utilisée dans l'alimentation humaine chez les Mixtèques des montagnes du Guerrero[2]. Elle n'est considérée que pour nourrir les animaux chez les Mayas de la péninsule du Yucatán[2]. Plante ornementale en Europe.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adventice largement utilisée dans l'alimentation humaine chez les Mixtèques des montagnes du Guerrero. Elle n'est considérée que pour nourrir les animaux chez les Mayas de la péninsule du Yucatán. Plante ornementale en Europe.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anode_%C3%A0_cr%C3%AAte</t>
+          <t>Anode_à_crête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,16 +624,53 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce est décrite une première fois en 1753 par Carl von Linné dans le genre Sida : Sida cristata L.[3]
-Dans sa description du genre, Antonio José Cavanilles, en 1785, la nomme  Anoda hastata et en fait l'espèce type[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est décrite une première fois en 1753 par Carl von Linné dans le genre Sida : Sida cristata L.
+Dans sa description du genre, Antonio José Cavanilles, en 1785, la nomme  Anoda hastata et en fait l'espèce type.
 Cette espèce est redécrite par la suite plusieurs fois sous différents noms par Cavanilles lui-même, Carl Ludwig von Willdenow et Rodolfo Armando Philippi en particulier.
 En 1837, Diederich Franz Leonhard von Schlechtendal renomme le basionyme de Carl von Linné en Anoda cristata et établit déjà quelques synonymies.
-En 1987, Paul Arnold Fryxell complète la synonymie de cette espèce[5].
-Synonymes
-Il résulte donc une synonymie abondante :
-Anoda acerifolia Cav. (1803)[6]
+En 1987, Paul Arnold Fryxell complète la synonymie de cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anode_à_crête</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anode_%C3%A0_cr%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il résulte donc une synonymie abondante :
+Anoda acerifolia Cav. (1803)
 Anoda acerifolia var. minoriflora Hochr. (1916)
 Anoda arizonica A.Gray (1887)
 Anoda dilleniana Cav. (1785)
@@ -641,41 +696,77 @@
 Anoda cristata var. albiflora Hochr. (1916)
 Anoda cristata var. brachyantha (Rchb.) Hochr. (1916) (synonyme : Anoda brachyantha Rchb.)
 Anoda cristata var. digitata (A.Gray) Hochr. (1916) (synonymes : Anoda arizonica var. digitata A.Gray, Anoda triangularis var. digitata (A.Gray) B.L.Rob.)
-Anoda cristata var. typica Hochr. (1916)
-Variétés
-L'utilisation ornementale de cette espèce l'a diffusée à l'ensemble des pays à climat tempéré. Quelques variétés horticoles sont disponibles comme :
+Anoda cristata var. typica Hochr. (1916)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anode_à_crête</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anode_%C3%A0_cr%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'utilisation ornementale de cette espèce l'a diffusée à l'ensemble des pays à climat tempéré. Quelques variétés horticoles sont disponibles comme :
 Anoda cristata 'Alba'
 Anoda cristata 'Opal cup'</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anode_%C3%A0_cr%C3%AAte</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anode_à_crête</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anode_%C3%A0_cr%C3%AAte</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Pathogènes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante peut être tuée par l’action conjuguée des champignons microscopiques Alternaria macrospora et Fusarium lateritium[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante peut être tuée par l’action conjuguée des champignons microscopiques Alternaria macrospora et Fusarium lateritium.
 			Fleur
 			Jeune fruit
 			Fruit
